--- a/medicine/Enfance/Mortel_chassé-croisé/Mortel_chassé-croisé.xlsx
+++ b/medicine/Enfance/Mortel_chassé-croisé/Mortel_chassé-croisé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mortel_chass%C3%A9-crois%C3%A9</t>
+          <t>Mortel_chassé-croisé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mortel chassé-croisé (titre original : The Switch) est un roman anglais pour adolescents d'Anthony Horowitz.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mortel_chass%C3%A9-crois%C3%A9</t>
+          <t>Mortel_chassé-croisé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">" Je voudrais être quelqu'un d'autre ".
 Un beau matin, le vœu de Tad devient réalité. Il n'est plus, Tad Spencer, adolescent riche et gâté, mais Bob Snarby, fils de forains brutaux et misérables. Le voilà soudain plongé dans un univers impitoyable. Pourtant, les ennuis ne font que commencer...
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mortel_chass%C3%A9-crois%C3%A9</t>
+          <t>Mortel_chassé-croisé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Arnold David Spencer est un jeune adolescent de 13 ans riche et gâté et bon a l'école. Ses parents sont des gens stricts. Sa mère a fait refaire son nez pas plus de six fois. Son père dirige une grande chaîne de magasins, "UN MONDE DE BEAUTE" qui couvre l'Amérique, l'Europe et le Royaume-Uni.
 L'histoire commence lorsqu'il revient du collège où il a passé l'année scolaire. Lady Géranium, sa mère et Sir Hubert Spencer, son père, lui demandent ce qu'il a prévu pour ses vacances. Tad voudrait aller dans un parc d'attraction sensationnel avec son meilleur ami, mais ses parents refusent catégoriquement car ils le jugent trop sensible. C'est alors qu'en se couchant, il souhaite une chose: être quelqu'un d'autre. Il ne se doute pas qu'à des années-lumière de là, une étrange étoile a émis une lueur verte.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mortel_chass%C3%A9-crois%C3%A9</t>
+          <t>Mortel_chassé-croisé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Chapitres (version française)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Un monde de beauté
 La caravane
